--- a/scraping/sondaze/data.xlsx
+++ b/scraping/sondaze/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Desktop\NAUKA\Python Nauka\data_science\scraping\sondaze\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41316E1-FCA3-4A76-BED2-F7F156488C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF048C4-845A-4A5B-8562-606679B29726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>Ko</t>
   </si>
   <si>
-    <t>Pl2025</t>
+    <t>Pl2050</t>
   </si>
   <si>
     <t>Psl</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
@@ -1920,6 +1920,2269 @@
         <v>7</v>
       </c>
     </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>0.3</v>
+      </c>
+      <c r="B73">
+        <v>9</v>
+      </c>
+      <c r="C73">
+        <v>31.3</v>
+      </c>
+      <c r="F73">
+        <v>27.4</v>
+      </c>
+      <c r="G73">
+        <v>9.9</v>
+      </c>
+      <c r="I73">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>29</v>
+      </c>
+      <c r="F74">
+        <v>29</v>
+      </c>
+      <c r="G74">
+        <v>15</v>
+      </c>
+      <c r="I74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>0.7</v>
+      </c>
+      <c r="B75">
+        <v>5.9</v>
+      </c>
+      <c r="C75">
+        <v>31.9</v>
+      </c>
+      <c r="F75">
+        <v>28.9</v>
+      </c>
+      <c r="G75">
+        <v>14.2</v>
+      </c>
+      <c r="I75">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.5</v>
+      </c>
+      <c r="B76">
+        <v>7.3</v>
+      </c>
+      <c r="C76">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F76">
+        <v>32.4</v>
+      </c>
+      <c r="G76">
+        <v>13.2</v>
+      </c>
+      <c r="I76">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F77">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="G77">
+        <v>10.3</v>
+      </c>
+      <c r="I77">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.8</v>
+      </c>
+      <c r="B78">
+        <v>7.4</v>
+      </c>
+      <c r="C78">
+        <v>34.5</v>
+      </c>
+      <c r="F78">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="G78">
+        <v>7.3</v>
+      </c>
+      <c r="I78">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2.5</v>
+      </c>
+      <c r="B79">
+        <v>6.7</v>
+      </c>
+      <c r="C79">
+        <v>32.1</v>
+      </c>
+      <c r="F79">
+        <v>29.2</v>
+      </c>
+      <c r="G79">
+        <v>13.7</v>
+      </c>
+      <c r="I79">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80">
+        <v>6</v>
+      </c>
+      <c r="C80">
+        <v>33</v>
+      </c>
+      <c r="F80">
+        <v>30</v>
+      </c>
+      <c r="G80">
+        <v>11</v>
+      </c>
+      <c r="I80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B81">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C81">
+        <v>32.9</v>
+      </c>
+      <c r="F81">
+        <v>30.5</v>
+      </c>
+      <c r="G81">
+        <v>13.1</v>
+      </c>
+      <c r="I81">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>35</v>
+      </c>
+      <c r="F82">
+        <v>32</v>
+      </c>
+      <c r="G82">
+        <v>13</v>
+      </c>
+      <c r="I82">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>8.5</v>
+      </c>
+      <c r="C83">
+        <v>32.5</v>
+      </c>
+      <c r="F83">
+        <v>29.9</v>
+      </c>
+      <c r="G83">
+        <v>10.5</v>
+      </c>
+      <c r="I83">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>32</v>
+      </c>
+      <c r="F84">
+        <v>31</v>
+      </c>
+      <c r="G84">
+        <v>13</v>
+      </c>
+      <c r="I84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>33</v>
+      </c>
+      <c r="F85">
+        <v>32</v>
+      </c>
+      <c r="G85">
+        <v>13</v>
+      </c>
+      <c r="I85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C86">
+        <v>34</v>
+      </c>
+      <c r="F86">
+        <v>30</v>
+      </c>
+      <c r="G86">
+        <v>13</v>
+      </c>
+      <c r="I86">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1.5</v>
+      </c>
+      <c r="B87">
+        <v>5.8</v>
+      </c>
+      <c r="C87">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F87">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="G87">
+        <v>13.5</v>
+      </c>
+      <c r="I87">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>7.2</v>
+      </c>
+      <c r="C88">
+        <v>32.1</v>
+      </c>
+      <c r="F88">
+        <v>29.4</v>
+      </c>
+      <c r="G88">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I88">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>7.1</v>
+      </c>
+      <c r="C89">
+        <v>34</v>
+      </c>
+      <c r="F89">
+        <v>31.7</v>
+      </c>
+      <c r="G89">
+        <v>10.8</v>
+      </c>
+      <c r="I89">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>0.5</v>
+      </c>
+      <c r="B90">
+        <v>7.6</v>
+      </c>
+      <c r="C90">
+        <v>32.4</v>
+      </c>
+      <c r="F90">
+        <v>29.4</v>
+      </c>
+      <c r="G90">
+        <v>10.4</v>
+      </c>
+      <c r="I90">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>34</v>
+      </c>
+      <c r="F91">
+        <v>25</v>
+      </c>
+      <c r="G91">
+        <v>12</v>
+      </c>
+      <c r="I91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C92">
+        <v>33.6</v>
+      </c>
+      <c r="F92">
+        <v>28.9</v>
+      </c>
+      <c r="G92">
+        <v>10.7</v>
+      </c>
+      <c r="I92">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>8.6</v>
+      </c>
+      <c r="C93">
+        <v>31.2</v>
+      </c>
+      <c r="F93">
+        <v>29.6</v>
+      </c>
+      <c r="G93">
+        <v>9.4</v>
+      </c>
+      <c r="I93">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>33</v>
+      </c>
+      <c r="F94">
+        <v>29</v>
+      </c>
+      <c r="G94">
+        <v>11</v>
+      </c>
+      <c r="I94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C95">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F95">
+        <v>32.4</v>
+      </c>
+      <c r="G95">
+        <v>12.2</v>
+      </c>
+      <c r="I95">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>7.3</v>
+      </c>
+      <c r="C96">
+        <v>30.7</v>
+      </c>
+      <c r="F96">
+        <v>31.3</v>
+      </c>
+      <c r="G96">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I96">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>7.8</v>
+      </c>
+      <c r="C97">
+        <v>33.5</v>
+      </c>
+      <c r="F97">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G97">
+        <v>9.5</v>
+      </c>
+      <c r="I97">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>29</v>
+      </c>
+      <c r="F98">
+        <v>28</v>
+      </c>
+      <c r="G98">
+        <v>13</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>5.9</v>
+      </c>
+      <c r="C99">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F99">
+        <v>33.5</v>
+      </c>
+      <c r="G99">
+        <v>12.5</v>
+      </c>
+      <c r="I99">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C100">
+        <v>31.9</v>
+      </c>
+      <c r="F100">
+        <v>31.4</v>
+      </c>
+      <c r="G100">
+        <v>13.7</v>
+      </c>
+      <c r="I100">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>9.9</v>
+      </c>
+      <c r="C101">
+        <v>34</v>
+      </c>
+      <c r="F101">
+        <v>31.9</v>
+      </c>
+      <c r="G101">
+        <v>12.4</v>
+      </c>
+      <c r="I101">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C102">
+        <v>34.1</v>
+      </c>
+      <c r="F102">
+        <v>29.5</v>
+      </c>
+      <c r="G102">
+        <v>10.5</v>
+      </c>
+      <c r="I102">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>7.4</v>
+      </c>
+      <c r="C103">
+        <v>33.1</v>
+      </c>
+      <c r="F103">
+        <v>32.9</v>
+      </c>
+      <c r="G103">
+        <v>9.1</v>
+      </c>
+      <c r="I103">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C104">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F104">
+        <v>31</v>
+      </c>
+      <c r="G104">
+        <v>8.4</v>
+      </c>
+      <c r="I104">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C105">
+        <v>30</v>
+      </c>
+      <c r="F105">
+        <v>30</v>
+      </c>
+      <c r="G105">
+        <v>10.7</v>
+      </c>
+      <c r="I105">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>32</v>
+      </c>
+      <c r="F106">
+        <v>29</v>
+      </c>
+      <c r="G106">
+        <v>11</v>
+      </c>
+      <c r="I106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107">
+        <v>8.4</v>
+      </c>
+      <c r="C107">
+        <v>32.9</v>
+      </c>
+      <c r="F107">
+        <v>32.1</v>
+      </c>
+      <c r="G107">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I107">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C108">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F108">
+        <v>31.6</v>
+      </c>
+      <c r="G108">
+        <v>12.6</v>
+      </c>
+      <c r="I108">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109">
+        <v>9.1</v>
+      </c>
+      <c r="C109">
+        <v>31.3</v>
+      </c>
+      <c r="F109">
+        <v>30.8</v>
+      </c>
+      <c r="G109">
+        <v>12.3</v>
+      </c>
+      <c r="I109">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>34.6</v>
+      </c>
+      <c r="F110">
+        <v>32.4</v>
+      </c>
+      <c r="G110">
+        <v>8.6</v>
+      </c>
+      <c r="I110">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111">
+        <v>7.7</v>
+      </c>
+      <c r="C111">
+        <v>33.5</v>
+      </c>
+      <c r="F111">
+        <v>31.9</v>
+      </c>
+      <c r="G111">
+        <v>8.1</v>
+      </c>
+      <c r="I111">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112">
+        <v>9</v>
+      </c>
+      <c r="C112">
+        <v>32</v>
+      </c>
+      <c r="F112">
+        <v>28</v>
+      </c>
+      <c r="G112">
+        <v>16</v>
+      </c>
+      <c r="I112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>9.1</v>
+      </c>
+      <c r="C113">
+        <v>31.5</v>
+      </c>
+      <c r="F113">
+        <v>31.6</v>
+      </c>
+      <c r="G113">
+        <v>14</v>
+      </c>
+      <c r="I113">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C114">
+        <v>33.9</v>
+      </c>
+      <c r="F114">
+        <v>27.8</v>
+      </c>
+      <c r="G114">
+        <v>12.4</v>
+      </c>
+      <c r="I114">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115">
+        <v>9.9</v>
+      </c>
+      <c r="C115">
+        <v>33</v>
+      </c>
+      <c r="F115">
+        <v>28.3</v>
+      </c>
+      <c r="G115">
+        <v>9.6</v>
+      </c>
+      <c r="I115">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C116">
+        <v>32.1</v>
+      </c>
+      <c r="F116">
+        <v>29</v>
+      </c>
+      <c r="G116">
+        <v>11.9</v>
+      </c>
+      <c r="I116">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C117">
+        <v>30.7</v>
+      </c>
+      <c r="F117">
+        <v>28.9</v>
+      </c>
+      <c r="G117">
+        <v>12</v>
+      </c>
+      <c r="I117">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="C118">
+        <v>31.4</v>
+      </c>
+      <c r="F118">
+        <v>27.1</v>
+      </c>
+      <c r="G118">
+        <v>13.8</v>
+      </c>
+      <c r="I118">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119">
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <v>31</v>
+      </c>
+      <c r="F119">
+        <v>28</v>
+      </c>
+      <c r="G119">
+        <v>12</v>
+      </c>
+      <c r="I119">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120">
+        <v>9</v>
+      </c>
+      <c r="C120">
+        <v>35.1</v>
+      </c>
+      <c r="F120">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G120">
+        <v>13.3</v>
+      </c>
+      <c r="I120">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121">
+        <v>7.7</v>
+      </c>
+      <c r="C121">
+        <v>31.2</v>
+      </c>
+      <c r="F121">
+        <v>27.2</v>
+      </c>
+      <c r="G121">
+        <v>11</v>
+      </c>
+      <c r="I121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>31</v>
+      </c>
+      <c r="F122">
+        <v>28</v>
+      </c>
+      <c r="G122">
+        <v>14</v>
+      </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>32</v>
+      </c>
+      <c r="F123">
+        <v>30</v>
+      </c>
+      <c r="G123">
+        <v>11</v>
+      </c>
+      <c r="I123">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124">
+        <v>6.2</v>
+      </c>
+      <c r="C124">
+        <v>34.4</v>
+      </c>
+      <c r="F124">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="G124">
+        <v>11.9</v>
+      </c>
+      <c r="I124">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>6.3</v>
+      </c>
+      <c r="C125">
+        <v>34</v>
+      </c>
+      <c r="F125">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G125">
+        <v>10.8</v>
+      </c>
+      <c r="I125">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>6.9</v>
+      </c>
+      <c r="C126">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F126">
+        <v>32.1</v>
+      </c>
+      <c r="G126">
+        <v>9</v>
+      </c>
+      <c r="I126">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B127">
+        <v>8.1</v>
+      </c>
+      <c r="C127">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F127">
+        <v>28.8</v>
+      </c>
+      <c r="G127">
+        <v>11.5</v>
+      </c>
+      <c r="I127">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B128">
+        <v>6.3</v>
+      </c>
+      <c r="C128">
+        <v>37.1</v>
+      </c>
+      <c r="F128">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="G128">
+        <v>12.1</v>
+      </c>
+      <c r="I128">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B129">
+        <v>9</v>
+      </c>
+      <c r="C129">
+        <v>34</v>
+      </c>
+      <c r="F129">
+        <v>33</v>
+      </c>
+      <c r="G129">
+        <v>12</v>
+      </c>
+      <c r="I129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>7.8</v>
+      </c>
+      <c r="C130">
+        <v>31.1</v>
+      </c>
+      <c r="F130">
+        <v>31.7</v>
+      </c>
+      <c r="G130">
+        <v>9.9</v>
+      </c>
+      <c r="I130">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>8.1</v>
+      </c>
+      <c r="C131">
+        <v>31.5</v>
+      </c>
+      <c r="F131">
+        <v>30.5</v>
+      </c>
+      <c r="G131">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I131">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B132">
+        <v>8.9</v>
+      </c>
+      <c r="C132">
+        <v>34.9</v>
+      </c>
+      <c r="F132">
+        <v>31.6</v>
+      </c>
+      <c r="G132">
+        <v>10.7</v>
+      </c>
+      <c r="I132">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B133">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>33</v>
+      </c>
+      <c r="F133">
+        <v>29</v>
+      </c>
+      <c r="G133">
+        <v>11</v>
+      </c>
+      <c r="I133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>7.7</v>
+      </c>
+      <c r="C134">
+        <v>32.1</v>
+      </c>
+      <c r="F134">
+        <v>29.8</v>
+      </c>
+      <c r="G134">
+        <v>9</v>
+      </c>
+      <c r="I134">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>34</v>
+      </c>
+      <c r="F135">
+        <v>32</v>
+      </c>
+      <c r="G135">
+        <v>10</v>
+      </c>
+      <c r="I135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>29</v>
+      </c>
+      <c r="F136">
+        <v>30</v>
+      </c>
+      <c r="G136">
+        <v>11</v>
+      </c>
+      <c r="I136">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B137">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>34.5</v>
+      </c>
+      <c r="F137">
+        <v>29.2</v>
+      </c>
+      <c r="G137">
+        <v>13.6</v>
+      </c>
+      <c r="I137">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B138">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C138">
+        <v>33.1</v>
+      </c>
+      <c r="F138">
+        <v>31.3</v>
+      </c>
+      <c r="G138">
+        <v>9</v>
+      </c>
+      <c r="I138">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B139">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>29.5</v>
+      </c>
+      <c r="F139">
+        <v>30.1</v>
+      </c>
+      <c r="G139">
+        <v>9.5</v>
+      </c>
+      <c r="I139">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>6.5</v>
+      </c>
+      <c r="C140">
+        <v>31.5</v>
+      </c>
+      <c r="F140">
+        <v>32.1</v>
+      </c>
+      <c r="G140">
+        <v>9.4</v>
+      </c>
+      <c r="I140">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>7</v>
+      </c>
+      <c r="C141">
+        <v>27</v>
+      </c>
+      <c r="F141">
+        <v>29</v>
+      </c>
+      <c r="G141">
+        <v>10</v>
+      </c>
+      <c r="I141">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B142">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="C142">
+        <v>29.7</v>
+      </c>
+      <c r="F142">
+        <v>29.8</v>
+      </c>
+      <c r="G142">
+        <v>11.6</v>
+      </c>
+      <c r="I142">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B143">
+        <v>7.8</v>
+      </c>
+      <c r="C143">
+        <v>32.4</v>
+      </c>
+      <c r="F143">
+        <v>30.8</v>
+      </c>
+      <c r="G143">
+        <v>11.7</v>
+      </c>
+      <c r="I143">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>29</v>
+      </c>
+      <c r="F144">
+        <v>30</v>
+      </c>
+      <c r="G144">
+        <v>13</v>
+      </c>
+      <c r="I144">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>8.9</v>
+      </c>
+      <c r="C145">
+        <v>31.8</v>
+      </c>
+      <c r="F145">
+        <v>30.3</v>
+      </c>
+      <c r="G145">
+        <v>7</v>
+      </c>
+      <c r="I145">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>9</v>
+      </c>
+      <c r="C146">
+        <v>30</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146">
+        <v>9</v>
+      </c>
+      <c r="I146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>8.1</v>
+      </c>
+      <c r="C147">
+        <v>30.8</v>
+      </c>
+      <c r="F147">
+        <v>30</v>
+      </c>
+      <c r="G147">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I147">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C148">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="F148">
+        <v>32.5</v>
+      </c>
+      <c r="G148">
+        <v>9.5</v>
+      </c>
+      <c r="I148">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>6</v>
+      </c>
+      <c r="C149">
+        <v>31</v>
+      </c>
+      <c r="F149">
+        <v>29</v>
+      </c>
+      <c r="G149">
+        <v>10</v>
+      </c>
+      <c r="I149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>9.1</v>
+      </c>
+      <c r="C150">
+        <v>29.7</v>
+      </c>
+      <c r="F150">
+        <v>31.5</v>
+      </c>
+      <c r="G150">
+        <v>9.1</v>
+      </c>
+      <c r="I150">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B151">
+        <v>9</v>
+      </c>
+      <c r="C151">
+        <v>32</v>
+      </c>
+      <c r="F151">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="G151">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="I151">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B152">
+        <v>9.6</v>
+      </c>
+      <c r="C152">
+        <v>30.3</v>
+      </c>
+      <c r="F152">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G152">
+        <v>8.6</v>
+      </c>
+      <c r="I152">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C153">
+        <v>28.3</v>
+      </c>
+      <c r="F153">
+        <v>29.3</v>
+      </c>
+      <c r="G153">
+        <v>9.9</v>
+      </c>
+      <c r="I153">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="C154">
+        <v>30.8</v>
+      </c>
+      <c r="F154">
+        <v>30.6</v>
+      </c>
+      <c r="G154">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I154">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B155">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>28</v>
+      </c>
+      <c r="F155">
+        <v>26</v>
+      </c>
+      <c r="G155">
+        <v>14</v>
+      </c>
+      <c r="I155">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <v>8.6</v>
+      </c>
+      <c r="C156">
+        <v>32.6</v>
+      </c>
+      <c r="F156">
+        <v>32.1</v>
+      </c>
+      <c r="G156">
+        <v>7.6</v>
+      </c>
+      <c r="I156">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C157">
+        <v>28.9</v>
+      </c>
+      <c r="F157">
+        <v>31.4</v>
+      </c>
+      <c r="G157">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I157">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C158">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F158">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G158">
+        <v>9.6</v>
+      </c>
+      <c r="I158">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B159">
+        <v>5</v>
+      </c>
+      <c r="C159">
+        <v>35</v>
+      </c>
+      <c r="F159">
+        <v>23</v>
+      </c>
+      <c r="G159">
+        <v>14</v>
+      </c>
+      <c r="I159">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B160">
+        <v>6.6</v>
+      </c>
+      <c r="C160">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F160">
+        <v>26.4</v>
+      </c>
+      <c r="G160">
+        <v>8.5</v>
+      </c>
+      <c r="I160">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>9.5</v>
+      </c>
+      <c r="C161">
+        <v>30.5</v>
+      </c>
+      <c r="F161">
+        <v>29</v>
+      </c>
+      <c r="G161">
+        <v>8.4</v>
+      </c>
+      <c r="I161">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>9.5</v>
+      </c>
+      <c r="C162">
+        <v>31.9</v>
+      </c>
+      <c r="F162">
+        <v>30</v>
+      </c>
+      <c r="G162">
+        <v>8.6</v>
+      </c>
+      <c r="I162">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B163">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>29</v>
+      </c>
+      <c r="F163">
+        <v>24</v>
+      </c>
+      <c r="G163">
+        <v>13</v>
+      </c>
+      <c r="I163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B164">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C164">
+        <v>30.8</v>
+      </c>
+      <c r="F164">
+        <v>32</v>
+      </c>
+      <c r="G164">
+        <v>9.9</v>
+      </c>
+      <c r="I164">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B165">
+        <v>8.5</v>
+      </c>
+      <c r="C165">
+        <v>30.2</v>
+      </c>
+      <c r="F165">
+        <v>29.1</v>
+      </c>
+      <c r="G165">
+        <v>8</v>
+      </c>
+      <c r="I165">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B166">
+        <v>7.6</v>
+      </c>
+      <c r="C166">
+        <v>28</v>
+      </c>
+      <c r="F166">
+        <v>29</v>
+      </c>
+      <c r="G166">
+        <v>8.6</v>
+      </c>
+      <c r="I166">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B167">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C167">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F167">
+        <v>24.6</v>
+      </c>
+      <c r="G167">
+        <v>10.1</v>
+      </c>
+      <c r="I167">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B168">
+        <v>9</v>
+      </c>
+      <c r="C168">
+        <v>29</v>
+      </c>
+      <c r="F168">
+        <v>23</v>
+      </c>
+      <c r="G168">
+        <v>11</v>
+      </c>
+      <c r="I168">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B169">
+        <v>10</v>
+      </c>
+      <c r="C169">
+        <v>32</v>
+      </c>
+      <c r="F169">
+        <v>27</v>
+      </c>
+      <c r="G169">
+        <v>10</v>
+      </c>
+      <c r="I169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="C170">
+        <v>29</v>
+      </c>
+      <c r="F170">
+        <v>30</v>
+      </c>
+      <c r="G170">
+        <v>12</v>
+      </c>
+      <c r="I170">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B171">
+        <v>8.5</v>
+      </c>
+      <c r="C171">
+        <v>32.6</v>
+      </c>
+      <c r="F171">
+        <v>28.2</v>
+      </c>
+      <c r="G171">
+        <v>9.1</v>
+      </c>
+      <c r="I171">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B172">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C172">
+        <v>32.6</v>
+      </c>
+      <c r="F172">
+        <v>30.1</v>
+      </c>
+      <c r="G172">
+        <v>7.6</v>
+      </c>
+      <c r="I172">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B173">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>29</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173">
+        <v>11</v>
+      </c>
+      <c r="I173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B174">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C174">
+        <v>31.2</v>
+      </c>
+      <c r="F174">
+        <v>30.9</v>
+      </c>
+      <c r="G174">
+        <v>8.1</v>
+      </c>
+      <c r="I174">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B175">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C175">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="F175">
+        <v>33</v>
+      </c>
+      <c r="G175">
+        <v>9.4</v>
+      </c>
+      <c r="I175">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>8</v>
+      </c>
+      <c r="C176">
+        <v>29</v>
+      </c>
+      <c r="F176">
+        <v>24</v>
+      </c>
+      <c r="G176">
+        <v>11</v>
+      </c>
+      <c r="I176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C177">
+        <v>29.8</v>
+      </c>
+      <c r="F177">
+        <v>30.1</v>
+      </c>
+      <c r="G177">
+        <v>6.8</v>
+      </c>
+      <c r="I177">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B178">
+        <v>9</v>
+      </c>
+      <c r="C178">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F178">
+        <v>30.3</v>
+      </c>
+      <c r="G178">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I178">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B179">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C179">
+        <v>31.7</v>
+      </c>
+      <c r="F179">
+        <v>29</v>
+      </c>
+      <c r="G179">
+        <v>8</v>
+      </c>
+      <c r="I179">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B180">
+        <v>9.1</v>
+      </c>
+      <c r="C180">
+        <v>31</v>
+      </c>
+      <c r="F180">
+        <v>24</v>
+      </c>
+      <c r="G180">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I180">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B181">
+        <v>9.6</v>
+      </c>
+      <c r="C181">
+        <v>28.2</v>
+      </c>
+      <c r="F181">
+        <v>28.3</v>
+      </c>
+      <c r="G181">
+        <v>7.6</v>
+      </c>
+      <c r="I181">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B182">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>29</v>
+      </c>
+      <c r="F182">
+        <v>24</v>
+      </c>
+      <c r="G182">
+        <v>11</v>
+      </c>
+      <c r="I182">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B183">
+        <v>10.1</v>
+      </c>
+      <c r="C183">
+        <v>30.1</v>
+      </c>
+      <c r="F183">
+        <v>30.3</v>
+      </c>
+      <c r="G183">
+        <v>6.7</v>
+      </c>
+      <c r="I183">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>7.9</v>
+      </c>
+      <c r="C184">
+        <v>31.7</v>
+      </c>
+      <c r="F184">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G184">
+        <v>7.9</v>
+      </c>
+      <c r="I184">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B185">
+        <v>10.4</v>
+      </c>
+      <c r="C185">
+        <v>27.5</v>
+      </c>
+      <c r="F185">
+        <v>28.4</v>
+      </c>
+      <c r="G185">
+        <v>6.8</v>
+      </c>
+      <c r="I185">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B186">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C186">
+        <v>30.2</v>
+      </c>
+      <c r="F186">
+        <v>33.9</v>
+      </c>
+      <c r="G186">
+        <v>6.3</v>
+      </c>
+      <c r="I186">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B187">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>29</v>
+      </c>
+      <c r="F187">
+        <v>29</v>
+      </c>
+      <c r="G187">
+        <v>10</v>
+      </c>
+      <c r="I187">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>9.4</v>
+      </c>
+      <c r="C188">
+        <v>24.3</v>
+      </c>
+      <c r="F188">
+        <v>26.3</v>
+      </c>
+      <c r="G188">
+        <v>10.9</v>
+      </c>
+      <c r="I188">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B189">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="C189">
+        <v>32</v>
+      </c>
+      <c r="F189">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="G189">
+        <v>5</v>
+      </c>
+      <c r="I189">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B190">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C190">
+        <v>28.4</v>
+      </c>
+      <c r="F190">
+        <v>33</v>
+      </c>
+      <c r="G190">
+        <v>7.7</v>
+      </c>
+      <c r="I190">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>8.4</v>
+      </c>
+      <c r="C191">
+        <v>31.3</v>
+      </c>
+      <c r="F191">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G191">
+        <v>6.7</v>
+      </c>
+      <c r="I191">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>9</v>
+      </c>
+      <c r="C192">
+        <v>25</v>
+      </c>
+      <c r="F192">
+        <v>30</v>
+      </c>
+      <c r="G192">
+        <v>9</v>
+      </c>
+      <c r="I192">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193">
+        <v>10</v>
+      </c>
+      <c r="C193">
+        <v>26</v>
+      </c>
+      <c r="F193">
+        <v>31</v>
+      </c>
+      <c r="G193">
+        <v>7</v>
+      </c>
+      <c r="I193">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>8</v>
+      </c>
+      <c r="C194">
+        <v>24.7</v>
+      </c>
+      <c r="F194">
+        <v>29.2</v>
+      </c>
+      <c r="G194">
+        <v>8</v>
+      </c>
+      <c r="I194">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195">
+        <v>10</v>
+      </c>
+      <c r="C195">
+        <v>28.8</v>
+      </c>
+      <c r="F195">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="G195">
+        <v>7.7</v>
+      </c>
+      <c r="I195">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C196">
+        <v>27</v>
+      </c>
+      <c r="F196">
+        <v>31.5</v>
+      </c>
+      <c r="G196">
+        <v>9</v>
+      </c>
+      <c r="I196">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>24</v>
+      </c>
+      <c r="F197">
+        <v>29</v>
+      </c>
+      <c r="G197">
+        <v>8</v>
+      </c>
+      <c r="I197">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198">
+        <v>10.4</v>
+      </c>
+      <c r="C198">
+        <v>26.7</v>
+      </c>
+      <c r="F198">
+        <v>31.3</v>
+      </c>
+      <c r="G198">
+        <v>9.1</v>
+      </c>
+      <c r="I198">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199">
+        <v>6.9</v>
+      </c>
+      <c r="C199">
+        <v>30.8</v>
+      </c>
+      <c r="F199">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G199">
+        <v>7</v>
+      </c>
+      <c r="I199">
+        <v>16.7</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200">
+        <v>8.5</v>
+      </c>
+      <c r="C200">
+        <v>30.4</v>
+      </c>
+      <c r="F200">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G200">
+        <v>6</v>
+      </c>
+      <c r="I200">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201">
+        <v>9.1</v>
+      </c>
+      <c r="C201">
+        <v>29.2</v>
+      </c>
+      <c r="F201">
+        <v>32.6</v>
+      </c>
+      <c r="G201">
+        <v>7</v>
+      </c>
+      <c r="I201">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202">
+        <v>5.4</v>
+      </c>
+      <c r="C202">
+        <v>29.9</v>
+      </c>
+      <c r="F202">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="G202">
+        <v>6.5</v>
+      </c>
+      <c r="I202">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>8.6</v>
+      </c>
+      <c r="C203">
+        <v>30.7</v>
+      </c>
+      <c r="F203">
+        <v>35.4</v>
+      </c>
+      <c r="G203">
+        <v>7.2</v>
+      </c>
+      <c r="I203">
+        <v>14.4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
